--- a/published-data/fonds-solidarite/fds-2022-05-10/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-10/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -5143,13 +5143,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="D93" t="n">
         <v>291</v>
       </c>
       <c r="E93" t="n">
-        <v>66694149</v>
+        <v>66894149</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -5755,13 +5755,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D105" t="n">
         <v>207</v>
       </c>
       <c r="E105" t="n">
-        <v>66236179</v>
+        <v>66418625</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -5959,13 +5959,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>24119</v>
+        <v>24120</v>
       </c>
       <c r="D109" t="n">
         <v>3216</v>
       </c>
       <c r="E109" t="n">
-        <v>71796817</v>
+        <v>71797720</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -12946,13 +12946,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="D246" t="n">
         <v>642</v>
       </c>
       <c r="E246" t="n">
-        <v>16831324</v>
+        <v>16836724</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -15751,13 +15751,13 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="D301" t="n">
         <v>318</v>
       </c>
       <c r="E301" t="n">
-        <v>36614626</v>
+        <v>36638183</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -17689,13 +17689,13 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>10144</v>
+        <v>10145</v>
       </c>
       <c r="D339" t="n">
         <v>1998</v>
       </c>
       <c r="E339" t="n">
-        <v>42619766</v>
+        <v>42623964</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
@@ -18097,13 +18097,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>14336</v>
+        <v>14338</v>
       </c>
       <c r="D347" t="n">
         <v>2812</v>
       </c>
       <c r="E347" t="n">
-        <v>36135035</v>
+        <v>36137488</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -18199,13 +18199,13 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D349" t="n">
         <v>408</v>
       </c>
       <c r="E349" t="n">
-        <v>13552560</v>
+        <v>13580554</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -18454,13 +18454,13 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>15712</v>
+        <v>15717</v>
       </c>
       <c r="D354" t="n">
         <v>2768</v>
       </c>
       <c r="E354" t="n">
-        <v>24640272</v>
+        <v>24651442</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -18658,13 +18658,13 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D358" t="n">
         <v>150</v>
       </c>
       <c r="E358" t="n">
-        <v>4158841</v>
+        <v>4168041</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
@@ -19423,13 +19423,13 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>8533</v>
+        <v>8534</v>
       </c>
       <c r="D373" t="n">
         <v>1482</v>
       </c>
       <c r="E373" t="n">
-        <v>66799754</v>
+        <v>66800749</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
@@ -19882,13 +19882,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>13853</v>
+        <v>13854</v>
       </c>
       <c r="D382" t="n">
         <v>2910</v>
       </c>
       <c r="E382" t="n">
-        <v>25844721</v>
+        <v>25851502</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
@@ -20851,13 +20851,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>10892</v>
+        <v>10891</v>
       </c>
       <c r="D401" t="n">
         <v>2156</v>
       </c>
       <c r="E401" t="n">
-        <v>42374201</v>
+        <v>42372641</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
@@ -21259,13 +21259,13 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>25480</v>
+        <v>25482</v>
       </c>
       <c r="D409" t="n">
         <v>5193</v>
       </c>
       <c r="E409" t="n">
-        <v>88182708</v>
+        <v>88193129</v>
       </c>
       <c r="F409" t="inlineStr">
         <is>
@@ -22126,13 +22126,13 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D426" t="n">
         <v>32</v>
       </c>
       <c r="E426" t="n">
-        <v>19369981</v>
+        <v>19569981</v>
       </c>
       <c r="F426" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163447</v>
+        <v>163441</v>
       </c>
       <c r="D434" t="n">
-        <v>25454</v>
+        <v>25453</v>
       </c>
       <c r="E434" t="n">
-        <v>709753035</v>
+        <v>709622358</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94496</v>
+        <v>94487</v>
       </c>
       <c r="D435" t="n">
         <v>12849</v>
       </c>
       <c r="E435" t="n">
-        <v>651313715</v>
+        <v>651208846</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22636,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>50587</v>
+        <v>50586</v>
       </c>
       <c r="D436" t="n">
         <v>6175</v>
       </c>
       <c r="E436" t="n">
-        <v>540560724</v>
+        <v>540448885</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>30910</v>
+        <v>30909</v>
       </c>
       <c r="D437" t="n">
         <v>3832</v>
       </c>
       <c r="E437" t="n">
-        <v>593341247</v>
+        <v>593281459</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -22738,13 +22738,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>10210</v>
+        <v>10211</v>
       </c>
       <c r="D438" t="n">
         <v>1382</v>
       </c>
       <c r="E438" t="n">
-        <v>477672556</v>
+        <v>477688718</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -23146,13 +23146,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>53160</v>
+        <v>53161</v>
       </c>
       <c r="D446" t="n">
-        <v>8885</v>
+        <v>8886</v>
       </c>
       <c r="E446" t="n">
-        <v>117749938</v>
+        <v>117758293</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -23758,13 +23758,13 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>24140</v>
+        <v>24141</v>
       </c>
       <c r="D458" t="n">
         <v>4651</v>
       </c>
       <c r="E458" t="n">
-        <v>133093788</v>
+        <v>133108750</v>
       </c>
       <c r="F458" t="inlineStr">
         <is>
@@ -23860,13 +23860,13 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>3560</v>
+        <v>3554</v>
       </c>
       <c r="D460" t="n">
         <v>601</v>
       </c>
       <c r="E460" t="n">
-        <v>52782662</v>
+        <v>52458416</v>
       </c>
       <c r="F460" t="inlineStr">
         <is>
@@ -23911,13 +23911,13 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D461" t="n">
         <v>205</v>
       </c>
       <c r="E461" t="n">
-        <v>49838563</v>
+        <v>49828563</v>
       </c>
       <c r="F461" t="inlineStr">
         <is>
@@ -23962,13 +23962,13 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D462" t="n">
         <v>24</v>
       </c>
       <c r="E462" t="n">
-        <v>13170608</v>
+        <v>13092118</v>
       </c>
       <c r="F462" t="inlineStr">
         <is>
@@ -24217,13 +24217,13 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>13529</v>
+        <v>13528</v>
       </c>
       <c r="D467" t="n">
         <v>2243</v>
       </c>
       <c r="E467" t="n">
-        <v>41335170</v>
+        <v>41326901</v>
       </c>
       <c r="F467" t="inlineStr">
         <is>
@@ -24268,13 +24268,13 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>37473</v>
+        <v>37472</v>
       </c>
       <c r="D468" t="n">
         <v>6657</v>
       </c>
       <c r="E468" t="n">
-        <v>132520784</v>
+        <v>132504093</v>
       </c>
       <c r="F468" t="inlineStr">
         <is>
@@ -25339,13 +25339,13 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>27865</v>
+        <v>27866</v>
       </c>
       <c r="D489" t="n">
         <v>5750</v>
       </c>
       <c r="E489" t="n">
-        <v>106601051</v>
+        <v>106602691</v>
       </c>
       <c r="F489" t="inlineStr">
         <is>
@@ -25849,13 +25849,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>18325</v>
+        <v>18331</v>
       </c>
       <c r="D499" t="n">
         <v>4979</v>
       </c>
       <c r="E499" t="n">
-        <v>41253077</v>
+        <v>41271449</v>
       </c>
       <c r="F499" t="inlineStr">
         <is>
@@ -25900,13 +25900,13 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>6382</v>
+        <v>6384</v>
       </c>
       <c r="D500" t="n">
         <v>1894</v>
       </c>
       <c r="E500" t="n">
-        <v>21920331</v>
+        <v>21931803</v>
       </c>
       <c r="F500" t="inlineStr">
         <is>
@@ -25951,13 +25951,13 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>2825</v>
+        <v>2827</v>
       </c>
       <c r="D501" t="n">
         <v>741</v>
       </c>
       <c r="E501" t="n">
-        <v>18436445</v>
+        <v>18460239</v>
       </c>
       <c r="F501" t="inlineStr">
         <is>
@@ -26206,13 +26206,13 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>8799</v>
+        <v>8800</v>
       </c>
       <c r="D506" t="n">
         <v>2144</v>
       </c>
       <c r="E506" t="n">
-        <v>12651047</v>
+        <v>12651124</v>
       </c>
       <c r="F506" t="inlineStr">
         <is>
@@ -26263,7 +26263,7 @@
         <v>699</v>
       </c>
       <c r="E507" t="n">
-        <v>9081803</v>
+        <v>9073557</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
@@ -26308,13 +26308,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>11681</v>
+        <v>11680</v>
       </c>
       <c r="D508" t="n">
         <v>2248</v>
       </c>
       <c r="E508" t="n">
-        <v>32888840</v>
+        <v>32886288</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>4546</v>
+        <v>4548</v>
       </c>
       <c r="D509" t="n">
         <v>967</v>
       </c>
       <c r="E509" t="n">
-        <v>20385473</v>
+        <v>20411989</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -26665,13 +26665,13 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>8483</v>
+        <v>8484</v>
       </c>
       <c r="D515" t="n">
         <v>1493</v>
       </c>
       <c r="E515" t="n">
-        <v>12668769</v>
+        <v>12669069</v>
       </c>
       <c r="F515" t="inlineStr">
         <is>
@@ -28756,13 +28756,13 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>24900</v>
+        <v>24901</v>
       </c>
       <c r="D556" t="n">
         <v>4894</v>
       </c>
       <c r="E556" t="n">
-        <v>101326568</v>
+        <v>101333061</v>
       </c>
       <c r="F556" t="inlineStr">
         <is>
@@ -29215,13 +29215,13 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>7769</v>
+        <v>7770</v>
       </c>
       <c r="D565" t="n">
         <v>1669</v>
       </c>
       <c r="E565" t="n">
-        <v>30003064</v>
+        <v>30048064</v>
       </c>
       <c r="F565" t="inlineStr">
         <is>
@@ -31612,13 +31612,13 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>48750</v>
+        <v>48751</v>
       </c>
       <c r="D612" t="n">
         <v>10181</v>
       </c>
       <c r="E612" t="n">
-        <v>202388187</v>
+        <v>202388784</v>
       </c>
       <c r="F612" t="inlineStr">
         <is>
@@ -39364,13 +39364,13 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>31965</v>
+        <v>31964</v>
       </c>
       <c r="D764" t="n">
-        <v>6526</v>
+        <v>6525</v>
       </c>
       <c r="E764" t="n">
-        <v>137944931</v>
+        <v>137934931</v>
       </c>
       <c r="F764" t="inlineStr">
         <is>
@@ -39925,13 +39925,13 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="D775" t="n">
         <v>516</v>
       </c>
       <c r="E775" t="n">
-        <v>20728072</v>
+        <v>20710514</v>
       </c>
       <c r="F775" t="inlineStr">
         <is>
@@ -39976,13 +39976,13 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D776" t="n">
         <v>225</v>
       </c>
       <c r="E776" t="n">
-        <v>19121900</v>
+        <v>19093737</v>
       </c>
       <c r="F776" t="inlineStr">
         <is>
@@ -41812,13 +41812,13 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>60658</v>
+        <v>60659</v>
       </c>
       <c r="D812" t="n">
         <v>10169</v>
       </c>
       <c r="E812" t="n">
-        <v>245035583</v>
+        <v>245042185</v>
       </c>
       <c r="F812" t="inlineStr">
         <is>
@@ -42526,13 +42526,13 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>5311</v>
+        <v>5312</v>
       </c>
       <c r="D826" t="n">
         <v>803</v>
       </c>
       <c r="E826" t="n">
-        <v>83576120</v>
+        <v>83587630</v>
       </c>
       <c r="F826" t="inlineStr">
         <is>
